--- a/pred_ohlcv/54_21/2020-01-26 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 FNB ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>10453395.97049999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>10290613.61489999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -730,7 +730,7 @@
         <v>8511983.865399994</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>8522981.865399994</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>8525645.865399994</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>8525645.865399994</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>8526311.865399994</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>8527643.865399994</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>8581118.721499994</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>8079450.721499994</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>8078118.721499994</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>519866.0198323602</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>30844195.68053236</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>31626463.48324624</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>31626463.48324624</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>35232101.29446012</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>34103985.297374</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>33098567.98188541</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>33615857.25538541</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>33615857.25538541</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>41199885.9896851</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>37891752.2582851</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>34851821.7025851</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>21148704.10235609</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>17161806.32505609</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>15793008.73075609</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>15897756.08475609</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>16570855.47765609</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>16671485.4810797</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>18068851.37161821</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-14428859.53730085</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-21027686.48880085</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-20576822.29390085</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-20388311.63090085</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-21778367.16858385</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-37714150.99508385</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-37723026.63008384</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-37723026.63008384</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-36868340.04767278</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-36868340.04767278</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-36939930.30347278</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-36939930.30347278</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-26 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>9661293.996399993</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>10453395.97049999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>10290613.61489999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>9812703.265699994</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>9873555.755699994</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>9873555.755699994</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>9881919.379599994</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>8453257.582199994</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>8453471.348799994</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>8448140.348799994</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>8495318.865399994</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>8511983.865399994</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>8522981.865399994</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>8525645.865399994</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>8525645.865399994</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>8526311.865399994</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>8527643.865399994</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>8532974.865399994</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>8581118.721499994</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>8079450.721499994</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>8078118.721499994</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1054501.20143236</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1054501.20143236</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1054501.20143236</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1015752.27373236</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>893489.8413323603</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>815801.4683323603</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>816215.5830323603</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>916624.7142323602</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1060498.47123236</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1060498.47123236</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>310498.4712323602</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>555581.5397323603</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1146975.23413236</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3266912.164475613</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3266912.164475613</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3632681.941175613</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3602116.865075612</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4109647.410675612</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4650750.288875612</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1625519.954175612</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-631488.876767639</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>30844195.68053236</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>31626463.48324624</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>31626463.48324624</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>35232101.29446012</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>34103985.297374</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>33098567.98188541</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>33615857.25538541</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>33615857.25538541</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>40624757.69598509</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>41199885.9896851</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>41199885.9896851</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>37891752.2582851</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>35003203.2737851</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>34851821.7025851</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>27741346.51065609</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>21148704.10235609</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>20416600.18065609</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>17161806.32505609</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>15793008.73075609</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>15897756.08475609</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>16570855.47765609</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>18068851.37161821</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>18068851.37161821</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>18008499.2413313</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>18006105.6465313</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-10987806.42530069</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-12193992.68860069</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-12213552.02550069</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-12213552.02550069</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-12213552.02550069</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-12221456.74150069</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-12221456.74150069</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-12282405.22600069</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-12282405.22600069</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-12282405.22600069</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-13013692.41790069</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-12935943.20010069</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-12877858.02380085</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-12983464.55340085</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-14181481.77050085</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-15250908.49160085</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-14704835.91120085</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-15747452.35840085</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-16993929.71690085</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-16993929.71690085</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-16993929.71690085</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-17371239.74920085</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-17075139.38570085</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-17075139.38570085</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-17659186.45720085</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-17659186.45720085</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-17601415.42000085</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-17571556.29760085</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-16350164.55830085</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-16171884.36140085</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-15961674.31800085</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-14429859.53730085</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-14429859.53730085</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-14320709.32840084</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-19513128.68000085</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-19510506.63410085</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-20965390.51850085</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-20965390.51850085</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-20754105.05860085</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-20754105.05860085</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-20829105.05860085</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-20167676.38680085</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-20030301.61020085</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-20452167.09300085</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-20452167.09300085</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-20849222.68200085</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-20849222.68200085</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-20601576.48880085</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-21027686.48880085</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-20576822.29390085</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-20388311.63090085</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-18289180.08640085</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-18289180.08640085</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-18289698.94380085</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-18405980.17080085</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-18484016.95520085</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-17229598.11940086</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-17119598.11940086</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-18283764.50890085</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-18271987.32730085</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-17373984.23700085</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-16651803.91710085</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-12962945.65107768</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-12543779.5632167</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-12998701.25821671</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-12757823.88998385</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-12727887.35638385</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-12587398.64858384</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-12587398.64858384</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-12587398.64858384</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-9650239.332583845</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-21778367.16858385</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-37714150.99508385</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-37723026.63008384</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-37723026.63008384</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-36847262.92347278</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-36939930.30347278</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
